--- a/medicine/Psychotrope/Brasserie_Millevertus/Brasserie_Millevertus.xlsx
+++ b/medicine/Psychotrope/Brasserie_Millevertus/Brasserie_Millevertus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Millevertus est une brasserie artisanale belge située à Breuvanne dans la commune de Tintigny au sud de la province de Luxembourg.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En juin 2004, Daniel Lessire brasse sa première bière. N'ayant pas de formation dans le domaine brassicole, il compense par une passion et une volonté d'arriver à un résultat probant. En 2007, cette passion est récompensée par un Fourquet d’Argent pour la bière la Poivrote (anciennement l'Amarante) à Saint-Nicolas-de-Port en France. D'autres prix viendront s'ajouter plus tard. La brasserie s'installe à Breuvanne en 2011. 
 </t>
@@ -543,7 +557,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie artisanale produit actuellement quatorze bières.
 la Poivrote, une blonde aromatique aux poivres noirs titrant 7 % de volume d'alcool. Récompensée Fourquet d'argent en 2007 à Saint-Nicolas-de-Port en France.
@@ -589,7 +605,9 @@
           <t>Visite</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs formules de visite commentée de la brasserie suivie d'une dégustation d'une demi-douzaine de bières sont organisées sur réservation.
 </t>
